--- a/Results/Lorenz_by_age_LCrrDistNetWorth.xlsx
+++ b/Results/Lorenz_by_age_LCrrDistNetWorth.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>age_bin</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>age_bin_5yr</t>
-  </si>
-  <si>
-    <t>70-75</t>
   </si>
   <si>
     <t>age_bin_10yr</t>
@@ -735,7 +732,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -909,23 +906,6 @@
       </c>
       <c r="E10">
         <v>0.2136980118891083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0.00319875195720328</v>
-      </c>
-      <c r="C11">
-        <v>0.03441304239078921</v>
-      </c>
-      <c r="D11">
-        <v>0.09551116062558203</v>
-      </c>
-      <c r="E11">
-        <v>0.2094882313458568</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +923,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/Results/Lorenz_by_age_LCrrDistNetWorth.xlsx
+++ b/Results/Lorenz_by_age_LCrrDistNetWorth.xlsx
@@ -462,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0001868547545534963</v>
+        <v>-0.004282840336034826</v>
       </c>
       <c r="C2">
-        <v>0.03047356714340979</v>
+        <v>0.02302100293418834</v>
       </c>
       <c r="D2">
-        <v>0.1005458947508881</v>
+        <v>0.08579924713921762</v>
       </c>
       <c r="E2">
-        <v>0.2532346143786333</v>
+        <v>0.22516039235143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -479,16 +479,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.008609052404084341</v>
+        <v>-0.01855104846907478</v>
       </c>
       <c r="C3">
-        <v>0.01776568585415393</v>
+        <v>0.005422169068455969</v>
       </c>
       <c r="D3">
-        <v>0.09471479682996145</v>
+        <v>0.07479120730010015</v>
       </c>
       <c r="E3">
-        <v>0.2730039994266019</v>
+        <v>0.2378289229639267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,16 +496,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.01114052884754069</v>
+        <v>-0.02613736430319635</v>
       </c>
       <c r="C4">
-        <v>0.008571963747890543</v>
+        <v>-0.007154220427063259</v>
       </c>
       <c r="D4">
-        <v>0.08064164729195009</v>
+        <v>0.05967910789027422</v>
       </c>
       <c r="E4">
-        <v>0.2636468948719055</v>
+        <v>0.2305681723758092</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,16 +513,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.007728730505176792</v>
+        <v>-0.01955700770304824</v>
       </c>
       <c r="C5">
-        <v>0.009471882603127025</v>
+        <v>-0.001125629226679811</v>
       </c>
       <c r="D5">
-        <v>0.07789363271128716</v>
+        <v>0.06478498766028414</v>
       </c>
       <c r="E5">
-        <v>0.2600061436942636</v>
+        <v>0.2380158442442341</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -530,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.003129687019554217</v>
+        <v>-0.00854105973134241</v>
       </c>
       <c r="C6">
-        <v>0.01467343829663756</v>
+        <v>0.01318274608469809</v>
       </c>
       <c r="D6">
-        <v>0.08180780472419802</v>
+        <v>0.08160447448843923</v>
       </c>
       <c r="E6">
-        <v>0.2611205721742703</v>
+        <v>0.255838728315701</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -547,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0003170317622659856</v>
+        <v>-6.230550227516185E-05</v>
       </c>
       <c r="C7">
-        <v>0.01972197010722334</v>
+        <v>0.02619313379369959</v>
       </c>
       <c r="D7">
-        <v>0.08635937120965467</v>
+        <v>0.09844080080017134</v>
       </c>
       <c r="E7">
-        <v>0.2621863319619264</v>
+        <v>0.2726153113653246</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -564,16 +564,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001962041621723962</v>
+        <v>0.004033704328844627</v>
       </c>
       <c r="C8">
-        <v>0.02237057962160435</v>
+        <v>0.03322454103344932</v>
       </c>
       <c r="D8">
-        <v>0.08797995699963443</v>
+        <v>0.1078608596092078</v>
       </c>
       <c r="E8">
-        <v>0.2600362839403036</v>
+        <v>0.2812938098090068</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -581,16 +581,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.002980050080565763</v>
+        <v>0.006306681806613115</v>
       </c>
       <c r="C9">
-        <v>0.02397804994533067</v>
+        <v>0.03761272248300324</v>
       </c>
       <c r="D9">
-        <v>0.08810811189932835</v>
+        <v>0.1133327832638251</v>
       </c>
       <c r="E9">
-        <v>0.2561973791226438</v>
+        <v>0.2853922200211083</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -598,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0002529031770905285</v>
+        <v>0.001343701675643187</v>
       </c>
       <c r="C10">
-        <v>0.01661624943206456</v>
+        <v>0.02707462818091589</v>
       </c>
       <c r="D10">
-        <v>0.07382796959075368</v>
+        <v>0.09615231592399624</v>
       </c>
       <c r="E10">
-        <v>0.235527327725442</v>
+        <v>0.2628644012402884</v>
       </c>
     </row>
   </sheetData>
@@ -645,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0001868547545534963</v>
+        <v>-0.004282840336034826</v>
       </c>
       <c r="C2">
-        <v>0.03047356714340979</v>
+        <v>0.02302100293418834</v>
       </c>
       <c r="D2">
-        <v>0.1005458947508881</v>
+        <v>0.08579924713921762</v>
       </c>
       <c r="E2">
-        <v>0.2532346143786333</v>
+        <v>0.22516039235143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -662,16 +662,16 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>-0.01010619226149713</v>
+        <v>-0.0226730292340869</v>
       </c>
       <c r="C3">
-        <v>0.01215886996185689</v>
+        <v>-0.001373785615127518</v>
       </c>
       <c r="D3">
-        <v>0.08409717121145673</v>
+        <v>0.0659747206858326</v>
       </c>
       <c r="E3">
-        <v>0.2608807519784946</v>
+        <v>0.2316682306050966</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -679,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-0.005171609681374163</v>
+        <v>-0.01353279462471494</v>
       </c>
       <c r="C4">
-        <v>0.01207790644405074</v>
+        <v>0.006319617599752947</v>
       </c>
       <c r="D4">
-        <v>0.07865006300258831</v>
+        <v>0.07269332730951769</v>
       </c>
       <c r="E4">
-        <v>0.2569327862415205</v>
+        <v>0.2450556704557504</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -696,16 +696,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.001137601516994725</v>
+        <v>0.001959036517865503</v>
       </c>
       <c r="C5">
-        <v>0.02090725041232334</v>
+        <v>0.02945572141998663</v>
       </c>
       <c r="D5">
-        <v>0.08655368420975317</v>
+        <v>0.1025130401938906</v>
       </c>
       <c r="E5">
-        <v>0.2592784568451815</v>
+        <v>0.2757024079197318</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -713,16 +713,16 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.001573758507314009</v>
+        <v>0.003841510628239411</v>
       </c>
       <c r="C6">
-        <v>0.02030668986249531</v>
+        <v>0.03250357040539691</v>
       </c>
       <c r="D6">
-        <v>0.08106103290982179</v>
+        <v>0.1051671806429676</v>
       </c>
       <c r="E6">
-        <v>0.2458943385163051</v>
+        <v>0.2748122718004537</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Lorenz_by_age_LCrrDistNetWorth.xlsx
+++ b/Results/Lorenz_by_age_LCrrDistNetWorth.xlsx
@@ -462,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004282840336034826</v>
+        <v>-0.00241300900131759</v>
       </c>
       <c r="C2">
-        <v>0.02302100293418834</v>
+        <v>0.02420064169246378</v>
       </c>
       <c r="D2">
-        <v>0.08579924713921762</v>
+        <v>0.08590672866320212</v>
       </c>
       <c r="E2">
-        <v>0.22516039235143</v>
+        <v>0.2242158903097133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -479,16 +479,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.01855104846907478</v>
+        <v>-0.01078253910153128</v>
       </c>
       <c r="C3">
-        <v>0.005422169068455969</v>
+        <v>0.01117444404076956</v>
       </c>
       <c r="D3">
-        <v>0.07479120730010015</v>
+        <v>0.07533717655727179</v>
       </c>
       <c r="E3">
-        <v>0.2378289229639267</v>
+        <v>0.2327189323273703</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,16 +496,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.02613736430319635</v>
+        <v>-0.01378653415286819</v>
       </c>
       <c r="C4">
-        <v>-0.007154220427063259</v>
+        <v>0.002406420623852526</v>
       </c>
       <c r="D4">
-        <v>0.05967910789027422</v>
+        <v>0.05916524097810846</v>
       </c>
       <c r="E4">
-        <v>0.2305681723758092</v>
+        <v>0.217001809463278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,16 +513,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.01955700770304824</v>
+        <v>-0.01129674052973242</v>
       </c>
       <c r="C5">
-        <v>-0.001125629226679811</v>
+        <v>0.002197436954104052</v>
       </c>
       <c r="D5">
-        <v>0.06478498766028414</v>
+        <v>0.05329285467690745</v>
       </c>
       <c r="E5">
-        <v>0.2380158442442341</v>
+        <v>0.2084252473561486</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -530,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.00854105973134241</v>
+        <v>-0.006762568177096875</v>
       </c>
       <c r="C6">
-        <v>0.01318274608469809</v>
+        <v>0.006795398818893292</v>
       </c>
       <c r="D6">
-        <v>0.08160447448843923</v>
+        <v>0.05680326194109874</v>
       </c>
       <c r="E6">
-        <v>0.255838728315701</v>
+        <v>0.211417937205422</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -547,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-6.230550227516185E-05</v>
+        <v>-0.002244964318470255</v>
       </c>
       <c r="C7">
-        <v>0.02619313379369959</v>
+        <v>0.01302606800570455</v>
       </c>
       <c r="D7">
-        <v>0.09844080080017134</v>
+        <v>0.06511554353142765</v>
       </c>
       <c r="E7">
-        <v>0.2726153113653246</v>
+        <v>0.220006130621684</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -564,16 +564,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.004033704328844627</v>
+        <v>0.0009948409788333452</v>
       </c>
       <c r="C8">
-        <v>0.03322454103344932</v>
+        <v>0.01851732218968732</v>
       </c>
       <c r="D8">
-        <v>0.1078608596092078</v>
+        <v>0.07354110383656695</v>
       </c>
       <c r="E8">
-        <v>0.2812938098090068</v>
+        <v>0.228767701808729</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -581,16 +581,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.006306681806613115</v>
+        <v>0.003926662307798636</v>
       </c>
       <c r="C9">
-        <v>0.03761272248300324</v>
+        <v>0.02534060456371936</v>
       </c>
       <c r="D9">
-        <v>0.1133327832638251</v>
+        <v>0.0847370939189559</v>
       </c>
       <c r="E9">
-        <v>0.2853922200211083</v>
+        <v>0.2409595184312517</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -598,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.001343701675643187</v>
+        <v>0.00376612575279402</v>
       </c>
       <c r="C10">
-        <v>0.02707462818091589</v>
+        <v>0.0224194189408992</v>
       </c>
       <c r="D10">
-        <v>0.09615231592399624</v>
+        <v>0.07674191351284153</v>
       </c>
       <c r="E10">
-        <v>0.2628644012402884</v>
+        <v>0.2264840196613731</v>
       </c>
     </row>
   </sheetData>
@@ -645,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004282840336034826</v>
+        <v>-0.00241300900131759</v>
       </c>
       <c r="C2">
-        <v>0.02302100293418834</v>
+        <v>0.02420064169246378</v>
       </c>
       <c r="D2">
-        <v>0.08579924713921762</v>
+        <v>0.08590672866320212</v>
       </c>
       <c r="E2">
-        <v>0.22516039235143</v>
+        <v>0.2242158903097133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -662,16 +662,16 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>-0.0226730292340869</v>
+        <v>-0.0124447298307974</v>
       </c>
       <c r="C3">
-        <v>-0.001373785615127518</v>
+        <v>0.006400925765394443</v>
       </c>
       <c r="D3">
-        <v>0.0659747206858326</v>
+        <v>0.06617749526632657</v>
       </c>
       <c r="E3">
-        <v>0.2316682306050966</v>
+        <v>0.2220628382452433</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -679,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-0.01353279462471494</v>
+        <v>-0.008793985638824242</v>
       </c>
       <c r="C4">
-        <v>0.006319617599752947</v>
+        <v>0.00457977622554382</v>
       </c>
       <c r="D4">
-        <v>0.07269332730951769</v>
+        <v>0.0544865904309146</v>
       </c>
       <c r="E4">
-        <v>0.2450556704557504</v>
+        <v>0.2077139997469632</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -696,16 +696,16 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.001959036517865503</v>
+        <v>-0.0005965792885441385</v>
       </c>
       <c r="C5">
-        <v>0.02945572141998663</v>
+        <v>0.01566159841510648</v>
       </c>
       <c r="D5">
-        <v>0.1025130401938906</v>
+        <v>0.06895537367068866</v>
       </c>
       <c r="E5">
-        <v>0.2757024079197318</v>
+        <v>0.22337357294751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -713,16 +713,16 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.003841510628239411</v>
+        <v>0.003826695749142049</v>
       </c>
       <c r="C6">
-        <v>0.03250357040539691</v>
+        <v>0.02389589325091205</v>
       </c>
       <c r="D6">
-        <v>0.1051671806429676</v>
+        <v>0.08088277258335552</v>
       </c>
       <c r="E6">
-        <v>0.2748122718004537</v>
+        <v>0.2340589305531008</v>
       </c>
     </row>
   </sheetData>
